--- a/biology/Zoologie/Holothyridae/Holothyridae.xlsx
+++ b/biology/Zoologie/Holothyridae/Holothyridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Holothyridae sont une famille d'acariens de l'ordre des Holothyrida. Elle comporte dix genres et une vingtaine d'espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Holothyridae se rencontrent en Océanie, au Sri Lanka et en Afrique de l'Est insulaire.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (21 juillet 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (21 juillet 2023) :
 Acaricesa Koçak &amp; Kemal, 2008
 Dicrogonatus Gerlach, Lehtinen &amp; Madl, 2010
 Hammenius Lehtinen, 1981
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(it) Thorell, « Descrizione di alcuni Aracnidi inferiori dell' Arcipelago Malese », Annali del Museo Civico di Storia Naturale di Genova, vol. 18,‎ 1882, p. 21-69.</t>
         </is>
